--- a/tables/1.xlsx
+++ b/tables/1.xlsx
@@ -479,16 +479,14 @@
           <t>129.90</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>radius</t>
-        </is>
+      <c r="D2" t="n">
+        <v>5.45</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1860453893585343</v>
+        <v>0.1983547997197325</v>
       </c>
       <c r="F2" t="n">
-        <v>6.569392619508222</v>
+        <v>7.101978590410672</v>
       </c>
     </row>
     <row r="3">
@@ -505,16 +503,14 @@
           <t>288.10</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>radius</t>
-        </is>
+      <c r="D3" t="n">
+        <v>7.99</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1764478268335896</v>
+        <v>0.1838129863555323</v>
       </c>
       <c r="F3" t="n">
-        <v>6.391953268528193</v>
+        <v>6.998886117754007</v>
       </c>
     </row>
     <row r="4">
@@ -531,16 +527,14 @@
           <t>456.05</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>radius</t>
-        </is>
+      <c r="D4" t="n">
+        <v>8.24</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1616129509402005</v>
+        <v>0.1649156957107697</v>
       </c>
       <c r="F4" t="n">
-        <v>6.683372379361671</v>
+        <v>7.346112179531526</v>
       </c>
     </row>
     <row r="5">
@@ -557,16 +551,14 @@
           <t>614.55</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>radius</t>
-        </is>
+      <c r="D5" t="n">
+        <v>14.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1762815158457622</v>
+        <v>0.176999957104893</v>
       </c>
       <c r="F5" t="n">
-        <v>7.128132167427252</v>
+        <v>7.678100988988485</v>
       </c>
     </row>
     <row r="6">
@@ -583,16 +575,14 @@
           <t>787.25</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>radius</t>
-        </is>
+      <c r="D6" t="n">
+        <v>3.46</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1555610693473129</v>
+        <v>0.160583951056986</v>
       </c>
       <c r="F6" t="n">
-        <v>6.386858813876649</v>
+        <v>6.709602523516109</v>
       </c>
     </row>
   </sheetData>
